--- a/01_dados/pop_tocantins.xlsx
+++ b/01_dados/pop_tocantins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\saude_bucal\01_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14047F19-60B8-41AC-822A-0D3059092DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01B301-8BB8-4EF5-84E4-7D7FE5CD986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,9 +613,6 @@
     <t>Município</t>
   </si>
   <si>
-    <t>de_0_14_anos</t>
-  </si>
-  <si>
     <t>de_15_a_29_anos</t>
   </si>
   <si>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>ibge</t>
+  </si>
+  <si>
+    <t>de_0_a_14_anos</t>
   </si>
 </sst>
 </file>
@@ -1004,15 +1004,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
         <v>189</v>
@@ -1081,16 +1081,16 @@
         <v>28</v>
       </c>
       <c r="X1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y1" t="s">
         <v>190</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>192</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
